--- a/weatherproject_aikataulu.xlsx
+++ b/weatherproject_aikataulu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heejeong/Desktop/GitHub/weatherthingy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18CCB57-3918-BD4C-98A8-FF8D87194A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C703E7-5A20-F545-91B8-63C057ECC157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
                   <c:v>45323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45330</c:v>
+                  <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45330</c:v>
@@ -531,7 +531,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -635,10 +641,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10</c:v>
@@ -647,7 +653,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>30</c:v>
@@ -796,7 +802,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1209,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1274,11 +1280,11 @@
         <v>45317</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="9">
         <f>B4-D4</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1304,10 +1310,12 @@
       <c r="C7" s="2">
         <v>45323</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
       <c r="E7" s="9">
         <f t="shared" ref="E7:E17" si="0">B7-D7</f>
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1318,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>45330</v>
+        <v>45344</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="9">
@@ -1372,10 +1380,12 @@
       <c r="C12" s="2">
         <v>45337</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
         <v>5</v>
